--- a/data_month/zb/工业/工业主要产品产量/工业机器人.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/工业机器人.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,16 @@
           <t>工业机器人产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>工业机器人产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -469,1235 +474,1436 @@
       <c r="E2" t="n">
         <v>21.7</v>
       </c>
+      <c r="F2" t="n">
+        <v>32996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5687</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>56604</v>
+        <v>7538</v>
       </c>
       <c r="E3" t="n">
-        <v>29.1</v>
+        <v>17.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7538</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.4</v>
+        <v>20.1</v>
       </c>
       <c r="C4" t="n">
-        <v>7485</v>
+        <v>4201</v>
       </c>
       <c r="D4" t="n">
-        <v>64123</v>
+        <v>11497</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7</v>
+        <v>19.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7891</v>
+        <v>7482</v>
       </c>
       <c r="D5" t="n">
-        <v>72426</v>
+        <v>26184</v>
       </c>
       <c r="E5" t="n">
-        <v>34.3</v>
+        <v>24.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7613</v>
+      </c>
       <c r="D6" t="n">
-        <v>7538</v>
+        <v>36142</v>
       </c>
       <c r="E6" t="n">
-        <v>17.7</v>
+        <v>25.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.1</v>
+        <v>62.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4201</v>
+        <v>6670</v>
       </c>
       <c r="D7" t="n">
-        <v>11497</v>
+        <v>32083</v>
       </c>
       <c r="E7" t="n">
-        <v>19.9</v>
+        <v>28.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.5</v>
+        <v>40.1</v>
       </c>
       <c r="C8" t="n">
-        <v>7482</v>
+        <v>5839</v>
       </c>
       <c r="D8" t="n">
-        <v>26184</v>
+        <v>38203</v>
       </c>
       <c r="E8" t="n">
-        <v>24.7</v>
+        <v>27.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.7</v>
+        <v>65.5</v>
       </c>
       <c r="C9" t="n">
-        <v>7613</v>
+        <v>6506</v>
       </c>
       <c r="D9" t="n">
-        <v>36142</v>
+        <v>45439</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8</v>
+        <v>33.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.8</v>
+        <v>35.1</v>
       </c>
       <c r="C10" t="n">
-        <v>6670</v>
+        <v>5728</v>
       </c>
       <c r="D10" t="n">
-        <v>32083</v>
+        <v>50925</v>
       </c>
       <c r="E10" t="n">
-        <v>28.2</v>
+        <v>30.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.1</v>
+        <v>15.1</v>
       </c>
       <c r="C11" t="n">
-        <v>5839</v>
+        <v>5687</v>
       </c>
       <c r="D11" t="n">
-        <v>38203</v>
+        <v>56604</v>
       </c>
       <c r="E11" t="n">
-        <v>27.2</v>
+        <v>29.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5679</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.5</v>
+        <v>54.4</v>
       </c>
       <c r="C12" t="n">
-        <v>6506</v>
+        <v>7485</v>
       </c>
       <c r="D12" t="n">
-        <v>45439</v>
+        <v>64123</v>
       </c>
       <c r="E12" t="n">
-        <v>33.1</v>
+        <v>31.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.1</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>5728</v>
+        <v>7891</v>
       </c>
       <c r="D13" t="n">
-        <v>50925</v>
+        <v>72426</v>
       </c>
       <c r="E13" t="n">
-        <v>30.8</v>
+        <v>34.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9445</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>104793</v>
+        <v>13662</v>
       </c>
       <c r="E14" t="n">
-        <v>68.90000000000001</v>
+        <v>29.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.8</v>
+        <v>78.2</v>
       </c>
       <c r="C15" t="n">
-        <v>11243</v>
+        <v>10163</v>
       </c>
       <c r="D15" t="n">
-        <v>118169</v>
+        <v>25220</v>
       </c>
       <c r="E15" t="n">
-        <v>68.8</v>
+        <v>55.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="C16" t="n">
-        <v>12682</v>
+        <v>9782</v>
       </c>
       <c r="D16" t="n">
-        <v>131079</v>
+        <v>35073</v>
       </c>
       <c r="E16" t="n">
-        <v>68.09999999999999</v>
+        <v>51.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10057</v>
+      </c>
       <c r="D17" t="n">
-        <v>13662</v>
+        <v>44360</v>
       </c>
       <c r="E17" t="n">
-        <v>29.9</v>
+        <v>50.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.2</v>
+        <v>61.1</v>
       </c>
       <c r="C18" t="n">
-        <v>10163</v>
+        <v>12614</v>
       </c>
       <c r="D18" t="n">
-        <v>25220</v>
+        <v>59097</v>
       </c>
       <c r="E18" t="n">
-        <v>55.1</v>
+        <v>52.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9782</v>
+        <v>12458</v>
       </c>
       <c r="D19" t="n">
-        <v>35073</v>
+        <v>71631</v>
       </c>
       <c r="E19" t="n">
-        <v>51.7</v>
+        <v>57</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.3</v>
+        <v>61.3</v>
       </c>
       <c r="C20" t="n">
-        <v>10057</v>
+        <v>12121</v>
       </c>
       <c r="D20" t="n">
-        <v>44360</v>
+        <v>82175</v>
       </c>
       <c r="E20" t="n">
-        <v>50.4</v>
+        <v>63</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.1</v>
+        <v>103.2</v>
       </c>
       <c r="C21" t="n">
-        <v>12614</v>
+        <v>13085</v>
       </c>
       <c r="D21" t="n">
-        <v>59097</v>
+        <v>95351</v>
       </c>
       <c r="E21" t="n">
-        <v>52.3</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="C22" t="n">
-        <v>12458</v>
+        <v>9445</v>
       </c>
       <c r="D22" t="n">
-        <v>71631</v>
+        <v>104793</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>68.90000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.3</v>
+        <v>45.8</v>
       </c>
       <c r="C23" t="n">
-        <v>12121</v>
+        <v>11243</v>
       </c>
       <c r="D23" t="n">
-        <v>82175</v>
+        <v>118169</v>
       </c>
       <c r="E23" t="n">
-        <v>63</v>
+        <v>68.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.2</v>
+        <v>56.5</v>
       </c>
       <c r="C24" t="n">
-        <v>13085</v>
+        <v>12682</v>
       </c>
       <c r="D24" t="n">
-        <v>95351</v>
+        <v>131079</v>
       </c>
       <c r="E24" t="n">
-        <v>69.40000000000001</v>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12910</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9590</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>118452</v>
+        <v>18770</v>
       </c>
       <c r="E25" t="n">
-        <v>8.699999999999999</v>
+        <v>25.1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18770</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7</v>
+        <v>34.4</v>
       </c>
       <c r="C26" t="n">
-        <v>11104</v>
+        <v>14036</v>
       </c>
       <c r="D26" t="n">
-        <v>131495</v>
+        <v>32950</v>
       </c>
       <c r="E26" t="n">
-        <v>6.6</v>
+        <v>29.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-12.1</v>
+        <v>35.4</v>
       </c>
       <c r="C27" t="n">
-        <v>11961</v>
+        <v>13495.9</v>
       </c>
       <c r="D27" t="n">
-        <v>147682</v>
+        <v>46412.9</v>
       </c>
       <c r="E27" t="n">
-        <v>4.6</v>
+        <v>32.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13462.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13659.2</v>
+      </c>
       <c r="D28" t="n">
-        <v>18770</v>
+        <v>60071.1</v>
       </c>
       <c r="E28" t="n">
-        <v>25.1</v>
+        <v>33.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13658.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.4</v>
+        <v>7.2</v>
       </c>
       <c r="C29" t="n">
-        <v>14036</v>
+        <v>13777</v>
       </c>
       <c r="D29" t="n">
-        <v>32950</v>
+        <v>73849.10000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>29.6</v>
+        <v>23.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13778.00000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.4</v>
+        <v>6.3</v>
       </c>
       <c r="C30" t="n">
-        <v>13495.9</v>
+        <v>13669</v>
       </c>
       <c r="D30" t="n">
-        <v>46412.9</v>
+        <v>87709</v>
       </c>
       <c r="E30" t="n">
-        <v>32.2</v>
+        <v>21</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13859.89999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.1</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>13659.2</v>
+        <v>14068</v>
       </c>
       <c r="D31" t="n">
-        <v>60071.1</v>
+        <v>101717</v>
       </c>
       <c r="E31" t="n">
-        <v>33.7</v>
+        <v>19.4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.2</v>
+        <v>-16.4</v>
       </c>
       <c r="C32" t="n">
-        <v>13777</v>
+        <v>11448</v>
       </c>
       <c r="D32" t="n">
-        <v>73849.10000000001</v>
+        <v>108271</v>
       </c>
       <c r="E32" t="n">
-        <v>23.9</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6554</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.3</v>
+        <v>-3.3</v>
       </c>
       <c r="C33" t="n">
-        <v>13669</v>
+        <v>9590</v>
       </c>
       <c r="D33" t="n">
-        <v>87709</v>
+        <v>118452</v>
       </c>
       <c r="E33" t="n">
-        <v>21</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="C34" t="n">
-        <v>14068</v>
+        <v>11104</v>
       </c>
       <c r="D34" t="n">
-        <v>101717</v>
+        <v>131495</v>
       </c>
       <c r="E34" t="n">
-        <v>19.4</v>
+        <v>6.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-16.4</v>
+        <v>-12.1</v>
       </c>
       <c r="C35" t="n">
-        <v>11448</v>
+        <v>11961</v>
       </c>
       <c r="D35" t="n">
-        <v>108271</v>
+        <v>147682</v>
       </c>
       <c r="E35" t="n">
-        <v>9.300000000000001</v>
+        <v>4.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>16187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14369</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>151079.5</v>
+        <v>20041.3</v>
       </c>
       <c r="E36" t="n">
-        <v>-8.800000000000001</v>
+        <v>-11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20041.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.3</v>
+        <v>-14</v>
       </c>
       <c r="C37" t="n">
-        <v>16080</v>
+        <v>13696</v>
       </c>
       <c r="D37" t="n">
-        <v>166594.6</v>
+        <v>32330.3</v>
       </c>
       <c r="E37" t="n">
-        <v>-5.3</v>
+        <v>-11.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.3</v>
+        <v>-7.3</v>
       </c>
       <c r="C38" t="n">
-        <v>20013.8</v>
+        <v>12917</v>
       </c>
       <c r="D38" t="n">
-        <v>186943.4</v>
+        <v>45258</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.1</v>
+        <v>-10.2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12927.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13317.2</v>
+      </c>
       <c r="D39" t="n">
-        <v>20041.3</v>
+        <v>60260</v>
       </c>
       <c r="E39" t="n">
-        <v>-11</v>
+        <v>-11.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="C40" t="n">
-        <v>13696</v>
+        <v>13680</v>
       </c>
       <c r="D40" t="n">
-        <v>32330.3</v>
+        <v>75406</v>
       </c>
       <c r="E40" t="n">
-        <v>-11.7</v>
+        <v>-10.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-7.3</v>
+        <v>-7.1</v>
       </c>
       <c r="C41" t="n">
-        <v>12917</v>
+        <v>15477.5</v>
       </c>
       <c r="D41" t="n">
-        <v>45258</v>
+        <v>100905.5</v>
       </c>
       <c r="E41" t="n">
-        <v>-10.2</v>
+        <v>-6.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25499.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-9.300000000000001</v>
+        <v>-19.3</v>
       </c>
       <c r="C42" t="n">
-        <v>13317.2</v>
+        <v>14599.8</v>
       </c>
       <c r="D42" t="n">
-        <v>60260</v>
+        <v>120777.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-11.9</v>
+        <v>-6.6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>19872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-11</v>
+        <v>-14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>13680</v>
+        <v>13726</v>
       </c>
       <c r="D43" t="n">
-        <v>75406</v>
+        <v>133574.5</v>
       </c>
       <c r="E43" t="n">
-        <v>-10.1</v>
+        <v>-9.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12797</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-7.1</v>
+        <v>1.7</v>
       </c>
       <c r="C44" t="n">
-        <v>15477.5</v>
+        <v>14369</v>
       </c>
       <c r="D44" t="n">
-        <v>100905.5</v>
+        <v>151079.5</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.3</v>
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17505</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-19.3</v>
+        <v>4.3</v>
       </c>
       <c r="C45" t="n">
-        <v>14599.8</v>
+        <v>16080</v>
       </c>
       <c r="D45" t="n">
-        <v>120777.5</v>
+        <v>166594.6</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.6</v>
+        <v>-5.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15515.10000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-14.6</v>
+        <v>15.3</v>
       </c>
       <c r="C46" t="n">
-        <v>13726</v>
+        <v>20013.8</v>
       </c>
       <c r="D46" t="n">
-        <v>133574.5</v>
+        <v>186943.4</v>
       </c>
       <c r="E46" t="n">
-        <v>-9.1</v>
+        <v>-6.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20348.79999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>21467</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>183447</v>
+        <v>21292</v>
       </c>
       <c r="E47" t="n">
-        <v>21</v>
+        <v>-19.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31.7</v>
+        <v>12.9</v>
       </c>
       <c r="C48" t="n">
-        <v>23635</v>
+        <v>17241</v>
       </c>
       <c r="D48" t="n">
-        <v>206851</v>
+        <v>34645.3</v>
       </c>
       <c r="E48" t="n">
-        <v>22.2</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13353.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>32.4</v>
+        <v>26.6</v>
       </c>
       <c r="C49" t="n">
-        <v>29706</v>
+        <v>19257</v>
       </c>
       <c r="D49" t="n">
-        <v>237068</v>
+        <v>54602.3</v>
       </c>
       <c r="E49" t="n">
-        <v>19.1</v>
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>19957</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>17794</v>
+      </c>
       <c r="D50" t="n">
-        <v>21292</v>
+        <v>72619</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.4</v>
+        <v>6.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>18016.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.9</v>
+        <v>29.2</v>
       </c>
       <c r="C51" t="n">
-        <v>17241</v>
+        <v>20761</v>
       </c>
       <c r="D51" t="n">
-        <v>34645.3</v>
+        <v>93794</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.199999999999999</v>
+        <v>10.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26.6</v>
+        <v>19.4</v>
       </c>
       <c r="C52" t="n">
-        <v>19257</v>
+        <v>21170</v>
       </c>
       <c r="D52" t="n">
-        <v>54602.3</v>
+        <v>115976</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>10.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>16.9</v>
+        <v>32.5</v>
       </c>
       <c r="C53" t="n">
-        <v>17794</v>
+        <v>20663</v>
       </c>
       <c r="D53" t="n">
-        <v>72619</v>
+        <v>136873</v>
       </c>
       <c r="E53" t="n">
-        <v>6.7</v>
+        <v>13.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20897</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29.2</v>
+        <v>51.4</v>
       </c>
       <c r="C54" t="n">
-        <v>20761</v>
+        <v>23194</v>
       </c>
       <c r="D54" t="n">
-        <v>93794</v>
+        <v>160715</v>
       </c>
       <c r="E54" t="n">
-        <v>10.3</v>
+        <v>18.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>23842</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>19.4</v>
+        <v>38.5</v>
       </c>
       <c r="C55" t="n">
-        <v>21170</v>
+        <v>21467</v>
       </c>
       <c r="D55" t="n">
-        <v>115976</v>
+        <v>183447</v>
       </c>
       <c r="E55" t="n">
-        <v>10.4</v>
+        <v>21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22732</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="C56" t="n">
-        <v>20663</v>
+        <v>23635</v>
       </c>
       <c r="D56" t="n">
-        <v>136873</v>
+        <v>206851</v>
       </c>
       <c r="E56" t="n">
-        <v>13.9</v>
+        <v>22.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>23404</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>51.4</v>
+        <v>32.4</v>
       </c>
       <c r="C57" t="n">
-        <v>23194</v>
+        <v>29706</v>
       </c>
       <c r="D57" t="n">
-        <v>160715</v>
+        <v>237068</v>
       </c>
       <c r="E57" t="n">
-        <v>18.2</v>
+        <v>19.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>28460</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>298098</v>
+        <v>45433</v>
       </c>
       <c r="E58" t="n">
-        <v>51.9</v>
+        <v>117.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>45433</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>27.9</v>
+        <v>80.8</v>
       </c>
       <c r="C59" t="n">
-        <v>31915</v>
+        <v>33075</v>
       </c>
       <c r="D59" t="n">
-        <v>330098</v>
+        <v>78714</v>
       </c>
       <c r="E59" t="n">
-        <v>49</v>
+        <v>108</v>
+      </c>
+      <c r="F59" t="n">
+        <v>33281</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15.1</v>
+        <v>43</v>
       </c>
       <c r="C60" t="n">
-        <v>35175</v>
+        <v>30178</v>
       </c>
       <c r="D60" t="n">
-        <v>366044</v>
+        <v>105439</v>
       </c>
       <c r="E60" t="n">
-        <v>44.9</v>
+        <v>79.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>26725</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29743</v>
+      </c>
       <c r="D61" t="n">
-        <v>45433</v>
+        <v>136405</v>
       </c>
       <c r="E61" t="n">
-        <v>117.6</v>
+        <v>73.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>30966</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>80.8</v>
+        <v>60.7</v>
       </c>
       <c r="C62" t="n">
-        <v>33075</v>
+        <v>36383</v>
       </c>
       <c r="D62" t="n">
-        <v>78714</v>
+        <v>173630</v>
       </c>
       <c r="E62" t="n">
-        <v>108</v>
+        <v>69.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>37225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="C63" t="n">
-        <v>30178</v>
+        <v>31342</v>
       </c>
       <c r="D63" t="n">
-        <v>105439</v>
+        <v>205094</v>
       </c>
       <c r="E63" t="n">
-        <v>79.2</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>31464</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50.1</v>
+        <v>57.4</v>
       </c>
       <c r="C64" t="n">
-        <v>29743</v>
+        <v>32828</v>
       </c>
       <c r="D64" t="n">
-        <v>136405</v>
+        <v>239249</v>
       </c>
       <c r="E64" t="n">
-        <v>73.2</v>
+        <v>63.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>34155</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>60.7</v>
+        <v>19.5</v>
       </c>
       <c r="C65" t="n">
-        <v>36383</v>
+        <v>29006</v>
       </c>
       <c r="D65" t="n">
-        <v>173630</v>
+        <v>268694</v>
       </c>
       <c r="E65" t="n">
-        <v>69.8</v>
+        <v>57.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>29445</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>42.3</v>
+        <v>10.6</v>
       </c>
       <c r="C66" t="n">
-        <v>31342</v>
+        <v>28460</v>
       </c>
       <c r="D66" t="n">
-        <v>205094</v>
+        <v>298098</v>
       </c>
       <c r="E66" t="n">
-        <v>64.59999999999999</v>
+        <v>51.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>29404</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>57.4</v>
+        <v>27.9</v>
       </c>
       <c r="C67" t="n">
-        <v>32828</v>
+        <v>31915</v>
       </c>
       <c r="D67" t="n">
-        <v>239249</v>
+        <v>330098</v>
       </c>
       <c r="E67" t="n">
-        <v>63.9</v>
+        <v>49</v>
+      </c>
+      <c r="F67" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19.5</v>
+        <v>15.1</v>
       </c>
       <c r="C68" t="n">
-        <v>29006</v>
+        <v>35175</v>
       </c>
       <c r="D68" t="n">
-        <v>268694</v>
+        <v>366044</v>
       </c>
       <c r="E68" t="n">
-        <v>57.8</v>
+        <v>44.9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>35946</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/工业机器人.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/工业机器人.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1456 +454,1531 @@
           <t>工业机器人产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>工业机器人产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5687</v>
+      </c>
       <c r="D2" t="n">
-        <v>32996</v>
+        <v>56604</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32996</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7485</v>
+      </c>
       <c r="D3" t="n">
-        <v>7538</v>
+        <v>64123</v>
       </c>
       <c r="E3" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7538</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.1</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>4201</v>
+        <v>7891</v>
       </c>
       <c r="D4" t="n">
-        <v>11497</v>
+        <v>72426</v>
       </c>
       <c r="E4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3959</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7482</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>26184</v>
+        <v>7538</v>
       </c>
       <c r="E5" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14687</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.7</v>
+        <v>20.1</v>
       </c>
       <c r="C6" t="n">
-        <v>7613</v>
+        <v>4201</v>
       </c>
       <c r="D6" t="n">
-        <v>36142</v>
+        <v>11497</v>
       </c>
       <c r="E6" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9958</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.8</v>
+        <v>16.5</v>
       </c>
       <c r="C7" t="n">
-        <v>6670</v>
+        <v>7482</v>
       </c>
       <c r="D7" t="n">
-        <v>32083</v>
+        <v>26184</v>
       </c>
       <c r="E7" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32083</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.1</v>
+        <v>14.7</v>
       </c>
       <c r="C8" t="n">
-        <v>5839</v>
+        <v>7613</v>
       </c>
       <c r="D8" t="n">
-        <v>38203</v>
+        <v>36142</v>
       </c>
       <c r="E8" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6120</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.5</v>
+        <v>62.8</v>
       </c>
       <c r="C9" t="n">
-        <v>6506</v>
+        <v>6670</v>
       </c>
       <c r="D9" t="n">
-        <v>45439</v>
+        <v>32083</v>
       </c>
       <c r="E9" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7236</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.1</v>
+        <v>40.1</v>
       </c>
       <c r="C10" t="n">
-        <v>5728</v>
+        <v>5839</v>
       </c>
       <c r="D10" t="n">
-        <v>50925</v>
+        <v>38203</v>
       </c>
       <c r="E10" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5486</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.1</v>
+        <v>65.5</v>
       </c>
       <c r="C11" t="n">
-        <v>5687</v>
+        <v>6506</v>
       </c>
       <c r="D11" t="n">
-        <v>56604</v>
+        <v>45439</v>
       </c>
       <c r="E11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5679</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.4</v>
+        <v>35.1</v>
       </c>
       <c r="C12" t="n">
-        <v>7485</v>
+        <v>5728</v>
       </c>
       <c r="D12" t="n">
-        <v>64123</v>
+        <v>50925</v>
       </c>
       <c r="E12" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7519</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>63.7</v>
       </c>
       <c r="C13" t="n">
-        <v>7891</v>
+        <v>9445</v>
       </c>
       <c r="D13" t="n">
-        <v>72426</v>
+        <v>104793</v>
       </c>
       <c r="E13" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8303</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11243</v>
+      </c>
       <c r="D14" t="n">
-        <v>13662</v>
+        <v>118169</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13662</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.2</v>
+        <v>56.5</v>
       </c>
       <c r="C15" t="n">
-        <v>10163</v>
+        <v>12682</v>
       </c>
       <c r="D15" t="n">
-        <v>25220</v>
+        <v>131079</v>
       </c>
       <c r="E15" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11558</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9782</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>35073</v>
+        <v>13662</v>
       </c>
       <c r="E16" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9853</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.3</v>
+        <v>78.2</v>
       </c>
       <c r="C17" t="n">
-        <v>10057</v>
+        <v>10163</v>
       </c>
       <c r="D17" t="n">
-        <v>44360</v>
+        <v>25220</v>
       </c>
       <c r="E17" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9287</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.1</v>
+        <v>57.4</v>
       </c>
       <c r="C18" t="n">
-        <v>12614</v>
+        <v>9782</v>
       </c>
       <c r="D18" t="n">
-        <v>59097</v>
+        <v>35073</v>
       </c>
       <c r="E18" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14737</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.40000000000001</v>
+        <v>47.3</v>
       </c>
       <c r="C19" t="n">
-        <v>12458</v>
+        <v>10057</v>
       </c>
       <c r="D19" t="n">
-        <v>71631</v>
+        <v>44360</v>
       </c>
       <c r="E19" t="n">
-        <v>57</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12534</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.3</v>
+        <v>61.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12121</v>
+        <v>12614</v>
       </c>
       <c r="D20" t="n">
-        <v>82175</v>
+        <v>59097</v>
       </c>
       <c r="E20" t="n">
-        <v>63</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10544</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>13085</v>
+        <v>12458</v>
       </c>
       <c r="D21" t="n">
-        <v>95351</v>
+        <v>71631</v>
       </c>
       <c r="E21" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13176</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.7</v>
+        <v>61.3</v>
       </c>
       <c r="C22" t="n">
-        <v>9445</v>
+        <v>12121</v>
       </c>
       <c r="D22" t="n">
-        <v>104793</v>
+        <v>82175</v>
       </c>
       <c r="E22" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9442</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45.8</v>
+        <v>103.2</v>
       </c>
       <c r="C23" t="n">
-        <v>11243</v>
+        <v>13085</v>
       </c>
       <c r="D23" t="n">
-        <v>118169</v>
+        <v>95351</v>
       </c>
       <c r="E23" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>13376</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.5</v>
+        <v>-3.3</v>
       </c>
       <c r="C24" t="n">
-        <v>12682</v>
+        <v>9590</v>
       </c>
       <c r="D24" t="n">
-        <v>131079</v>
+        <v>118452</v>
       </c>
       <c r="E24" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>12910</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11104</v>
+      </c>
       <c r="D25" t="n">
-        <v>18770</v>
+        <v>131495</v>
       </c>
       <c r="E25" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18770</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.4</v>
+        <v>-12.1</v>
       </c>
       <c r="C26" t="n">
-        <v>14036</v>
+        <v>11961</v>
       </c>
       <c r="D26" t="n">
-        <v>32950</v>
+        <v>147682</v>
       </c>
       <c r="E26" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>14180</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>13495.9</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>46412.9</v>
+        <v>18770</v>
       </c>
       <c r="E27" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>13462.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.1</v>
+        <v>34.4</v>
       </c>
       <c r="C28" t="n">
-        <v>13659.2</v>
+        <v>14036</v>
       </c>
       <c r="D28" t="n">
-        <v>60071.1</v>
+        <v>32950</v>
       </c>
       <c r="E28" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>13658.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.2</v>
+        <v>35.4</v>
       </c>
       <c r="C29" t="n">
-        <v>13777</v>
+        <v>13495.9</v>
       </c>
       <c r="D29" t="n">
-        <v>73849.10000000001</v>
+        <v>46412.9</v>
       </c>
       <c r="E29" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13778.00000000001</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.3</v>
+        <v>35.1</v>
       </c>
       <c r="C30" t="n">
-        <v>13669</v>
+        <v>13659.2</v>
       </c>
       <c r="D30" t="n">
-        <v>87709</v>
+        <v>60071.1</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13859.89999999999</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="C31" t="n">
-        <v>14068</v>
+        <v>13777</v>
       </c>
       <c r="D31" t="n">
-        <v>101717</v>
+        <v>73849.10000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>14008</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-16.4</v>
+        <v>6.3</v>
       </c>
       <c r="C32" t="n">
-        <v>11448</v>
+        <v>13669</v>
       </c>
       <c r="D32" t="n">
-        <v>108271</v>
+        <v>87709</v>
       </c>
       <c r="E32" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6554</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.3</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>9590</v>
+        <v>14068</v>
       </c>
       <c r="D33" t="n">
-        <v>118452</v>
+        <v>101717</v>
       </c>
       <c r="E33" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10181</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-7</v>
+        <v>-16.4</v>
       </c>
       <c r="C34" t="n">
-        <v>11104</v>
+        <v>11448</v>
       </c>
       <c r="D34" t="n">
-        <v>131495</v>
+        <v>108271</v>
       </c>
       <c r="E34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>13043</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-12.1</v>
+        <v>1.7</v>
       </c>
       <c r="C35" t="n">
-        <v>11961</v>
+        <v>14369</v>
       </c>
       <c r="D35" t="n">
-        <v>147682</v>
+        <v>151079.5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>16187</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16080</v>
+      </c>
       <c r="D36" t="n">
-        <v>20041.3</v>
+        <v>166594.6</v>
       </c>
       <c r="E36" t="n">
-        <v>-11</v>
-      </c>
-      <c r="F36" t="n">
-        <v>20041.3</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-14</v>
+        <v>15.3</v>
       </c>
       <c r="C37" t="n">
-        <v>13696</v>
+        <v>20013.8</v>
       </c>
       <c r="D37" t="n">
-        <v>32330.3</v>
+        <v>186943.4</v>
       </c>
       <c r="E37" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>12289</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12917</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>45258</v>
+        <v>20041.3</v>
       </c>
       <c r="E38" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12927.7</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-9.300000000000001</v>
+        <v>-14</v>
       </c>
       <c r="C39" t="n">
-        <v>13317.2</v>
+        <v>13696</v>
       </c>
       <c r="D39" t="n">
-        <v>60260</v>
+        <v>32330.3</v>
       </c>
       <c r="E39" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>15002</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-11</v>
+        <v>-7.3</v>
       </c>
       <c r="C40" t="n">
-        <v>13680</v>
+        <v>12917</v>
       </c>
       <c r="D40" t="n">
-        <v>75406</v>
+        <v>45258</v>
       </c>
       <c r="E40" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>15146</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-7.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>15477.5</v>
+        <v>13317.2</v>
       </c>
       <c r="D41" t="n">
-        <v>100905.5</v>
+        <v>60260</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>25499.5</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-19.3</v>
+        <v>-11</v>
       </c>
       <c r="C42" t="n">
-        <v>14599.8</v>
+        <v>13680</v>
       </c>
       <c r="D42" t="n">
-        <v>120777.5</v>
+        <v>75406</v>
       </c>
       <c r="E42" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="F42" t="n">
-        <v>19872</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-14.6</v>
+        <v>-7.1</v>
       </c>
       <c r="C43" t="n">
-        <v>13726</v>
+        <v>15477.5</v>
       </c>
       <c r="D43" t="n">
-        <v>133574.5</v>
+        <v>100905.5</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>12797</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.7</v>
+        <v>-19.3</v>
       </c>
       <c r="C44" t="n">
-        <v>14369</v>
+        <v>14599.8</v>
       </c>
       <c r="D44" t="n">
-        <v>151079.5</v>
+        <v>120777.5</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17505</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.3</v>
+        <v>-14.6</v>
       </c>
       <c r="C45" t="n">
-        <v>16080</v>
+        <v>13726</v>
       </c>
       <c r="D45" t="n">
-        <v>166594.6</v>
+        <v>133574.5</v>
       </c>
       <c r="E45" t="n">
-        <v>-5.3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>15515.10000000001</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.3</v>
+        <v>38.5</v>
       </c>
       <c r="C46" t="n">
-        <v>20013.8</v>
+        <v>21467</v>
       </c>
       <c r="D46" t="n">
-        <v>186943.4</v>
+        <v>183447</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>20348.79999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>23635</v>
+      </c>
       <c r="D47" t="n">
-        <v>21292</v>
+        <v>206851</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21292</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.9</v>
+        <v>32.4</v>
       </c>
       <c r="C48" t="n">
-        <v>17241</v>
+        <v>29706</v>
       </c>
       <c r="D48" t="n">
-        <v>34645.3</v>
+        <v>237068</v>
       </c>
       <c r="E48" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13353.3</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C49" t="n">
-        <v>19257</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>54602.3</v>
+        <v>21292</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>19957</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16.9</v>
+        <v>12.9</v>
       </c>
       <c r="C50" t="n">
-        <v>17794</v>
+        <v>17241</v>
       </c>
       <c r="D50" t="n">
-        <v>72619</v>
+        <v>34645.3</v>
       </c>
       <c r="E50" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F50" t="n">
-        <v>18016.7</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29.2</v>
+        <v>26.6</v>
       </c>
       <c r="C51" t="n">
-        <v>20761</v>
+        <v>19257</v>
       </c>
       <c r="D51" t="n">
-        <v>93794</v>
+        <v>54602.3</v>
       </c>
       <c r="E51" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>21175</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19.4</v>
+        <v>16.9</v>
       </c>
       <c r="C52" t="n">
-        <v>21170</v>
+        <v>17794</v>
       </c>
       <c r="D52" t="n">
-        <v>115976</v>
+        <v>72619</v>
       </c>
       <c r="E52" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>22182</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32.5</v>
+        <v>29.2</v>
       </c>
       <c r="C53" t="n">
-        <v>20663</v>
+        <v>20761</v>
       </c>
       <c r="D53" t="n">
-        <v>136873</v>
+        <v>93794</v>
       </c>
       <c r="E53" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>20897</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51.4</v>
+        <v>19.4</v>
       </c>
       <c r="C54" t="n">
-        <v>23194</v>
+        <v>21170</v>
       </c>
       <c r="D54" t="n">
-        <v>160715</v>
+        <v>115976</v>
       </c>
       <c r="E54" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>23842</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>38.5</v>
+        <v>32.5</v>
       </c>
       <c r="C55" t="n">
-        <v>21467</v>
+        <v>20663</v>
       </c>
       <c r="D55" t="n">
-        <v>183447</v>
+        <v>136873</v>
       </c>
       <c r="E55" t="n">
-        <v>21</v>
-      </c>
-      <c r="F55" t="n">
-        <v>22732</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>31.7</v>
+        <v>51.4</v>
       </c>
       <c r="C56" t="n">
-        <v>23635</v>
+        <v>23194</v>
       </c>
       <c r="D56" t="n">
-        <v>206851</v>
+        <v>160715</v>
       </c>
       <c r="E56" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>23404</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32.4</v>
+        <v>10.6</v>
       </c>
       <c r="C57" t="n">
-        <v>29706</v>
+        <v>28460</v>
       </c>
       <c r="D57" t="n">
-        <v>237068</v>
+        <v>298098</v>
       </c>
       <c r="E57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>30217</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31915</v>
+      </c>
       <c r="D58" t="n">
-        <v>45433</v>
+        <v>330098</v>
       </c>
       <c r="E58" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>45433</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>80.8</v>
+        <v>15.1</v>
       </c>
       <c r="C59" t="n">
-        <v>33075</v>
+        <v>35175</v>
       </c>
       <c r="D59" t="n">
-        <v>78714</v>
+        <v>366044</v>
       </c>
       <c r="E59" t="n">
-        <v>108</v>
-      </c>
-      <c r="F59" t="n">
-        <v>33281</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>43</v>
-      </c>
-      <c r="C60" t="n">
-        <v>30178</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>105439</v>
+        <v>45433</v>
       </c>
       <c r="E60" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>26725</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50.1</v>
+        <v>80.8</v>
       </c>
       <c r="C61" t="n">
-        <v>29743</v>
+        <v>33075</v>
       </c>
       <c r="D61" t="n">
-        <v>136405</v>
+        <v>78714</v>
       </c>
       <c r="E61" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>30966</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60.7</v>
+        <v>43</v>
       </c>
       <c r="C62" t="n">
-        <v>36383</v>
+        <v>30178</v>
       </c>
       <c r="D62" t="n">
-        <v>173630</v>
+        <v>105439</v>
       </c>
       <c r="E62" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>37225</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>42.3</v>
+        <v>50.1</v>
       </c>
       <c r="C63" t="n">
-        <v>31342</v>
+        <v>29743</v>
       </c>
       <c r="D63" t="n">
-        <v>205094</v>
+        <v>136405</v>
       </c>
       <c r="E63" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F63" t="n">
-        <v>31464</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>57.4</v>
+        <v>60.7</v>
       </c>
       <c r="C64" t="n">
-        <v>32828</v>
+        <v>36383</v>
       </c>
       <c r="D64" t="n">
-        <v>239249</v>
+        <v>173630</v>
       </c>
       <c r="E64" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>34155</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>19.5</v>
+        <v>42.3</v>
       </c>
       <c r="C65" t="n">
-        <v>29006</v>
+        <v>31342</v>
       </c>
       <c r="D65" t="n">
-        <v>268694</v>
+        <v>205094</v>
       </c>
       <c r="E65" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>29445</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10.6</v>
+        <v>57.4</v>
       </c>
       <c r="C66" t="n">
-        <v>28460</v>
+        <v>32828</v>
       </c>
       <c r="D66" t="n">
-        <v>298098</v>
+        <v>239249</v>
       </c>
       <c r="E66" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>29404</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27.9</v>
+        <v>19.5</v>
       </c>
       <c r="C67" t="n">
-        <v>31915</v>
+        <v>29006</v>
       </c>
       <c r="D67" t="n">
-        <v>330098</v>
+        <v>268694</v>
       </c>
       <c r="E67" t="n">
-        <v>49</v>
-      </c>
-      <c r="F67" t="n">
-        <v>32000</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B68" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>39030</v>
+      </c>
+      <c r="D68" t="n">
+        <v>362568</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>40113</v>
+      </c>
+      <c r="D69" t="n">
+        <v>402638</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>40457</v>
+      </c>
+      <c r="D70" t="n">
+        <v>443055</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>76381</v>
+      </c>
+      <c r="E71" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C72" t="n">
+        <v>44322</v>
+      </c>
+      <c r="D72" t="n">
+        <v>102496</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32535</v>
+      </c>
+      <c r="D73" t="n">
+        <v>125439</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>36616</v>
+      </c>
+      <c r="D74" t="n">
+        <v>166091</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>46144</v>
+      </c>
+      <c r="D75" t="n">
+        <v>202436</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>38183</v>
+      </c>
+      <c r="D76" t="n">
+        <v>238041</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>41261</v>
+      </c>
+      <c r="D77" t="n">
+        <v>277536</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
         <v>15.1</v>
       </c>
-      <c r="C68" t="n">
-        <v>35175</v>
-      </c>
-      <c r="D68" t="n">
-        <v>366044</v>
-      </c>
-      <c r="E68" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>35946</v>
+      <c r="C78" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D78" t="n">
+        <v>322544</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>62036</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>43883</v>
+      </c>
+      <c r="D80" t="n">
+        <v>103691</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>38083</v>
+      </c>
+      <c r="D81" t="n">
+        <v>142160</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>40175</v>
+      </c>
+      <c r="D82" t="n">
+        <v>182161</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>39974</v>
+      </c>
+      <c r="D83" t="n">
+        <v>222091</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
